--- a/biology/Botanique/Rhodymeniaceae/Rhodymeniaceae.xlsx
+++ b/biology/Botanique/Rhodymeniaceae/Rhodymeniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rhodymeniaceae sont une famille d’algues rouges de l’ordre  des Rhodymeniales, dans la classe des Florideophyceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (3 août 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (3 août 2017) :
 genre Botryocladia (J.Agardh) Kylin
 genre Cephalocystis A.J.K.Millar, G.W.Saunders, I.M.Strachan &amp; Kraft
 genre Chamaebotrys Huisman
@@ -535,7 +549,7 @@
 genre Rhodymenia Greville
 genre Rhodymeniocolax Setchell
 genre Sparlingia G.W.Saunders, I.W.Strachan &amp; Kraft
-Selon BioLib                    (3 août 2017)[2] :
+Selon BioLib                    (3 août 2017) :
 genre Agardhinula De Toni
 genre Botryocladia
 genre Chrysymenia
@@ -554,7 +568,7 @@
 genre Rhodymeniocolax
 genre Sciadophycus
 genre Weberella
-Selon World Register of Marine Species                               (3 août 2017)[3] :
+Selon World Register of Marine Species                               (3 août 2017) :
 genre Botryocladia (J.Agardh) Kylin, 1931
 genre Cephalocystis A.J.K.Millar, G.W.Saunders, I.M.Strachan &amp; Kraft, 1996
 genre Chamaebotrys Huisman, 1996
